--- a/medicine/Psychotrope/Godfather_(cocktail)/Godfather_(cocktail).xlsx
+++ b/medicine/Psychotrope/Godfather_(cocktail)/Godfather_(cocktail).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Un Godfather (Dieu le père, en anglais, Le Parrain, Il Padrino, en italien) est un cocktail ou un digestif Italo-Américain, à base de scotch whisky et d'amaretto, servit traditionnellement on the rocks. 
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cocktail est inspiré de façon humoristique du roman The Godfather (Le Parrain) de 1969 et de la trilogie de films The Godfather de 1972, de Francis Ford Coppola, avec Marlon Brando, Al Pacino, et Robert De Niro[1],[2], à base de mélange à mesure égale d'alcools américain et italien scotch whisky et amaretto[3], en référence aux origines  Italo-Américaines du parrain de la mafia américaine Vito Corleone (joué par Marlon Brando) dans la trilogie. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cocktail est inspiré de façon humoristique du roman The Godfather (Le Parrain) de 1969 et de la trilogie de films The Godfather de 1972, de Francis Ford Coppola, avec Marlon Brando, Al Pacino, et Robert De Niro à base de mélange à mesure égale d'alcools américain et italien scotch whisky et amaretto, en référence aux origines  Italo-Américaines du parrain de la mafia américaine Vito Corleone (joué par Marlon Brando) dans la trilogie. 
 Le cocktail French Connection s'inspire à son tour du film French Connection de 1971, et du cocktail Godfather, avec du cognac français à la place du scotch whisky.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Recette</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette recette (qui n'est pas un cocktail officiel de l'IBA[4]) se compose de :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette recette (qui n'est pas un cocktail officiel de l'IBA) se compose de :
 1 dose (ou 2) de scotch whisky
 1 dose d'amaretto
 Mélanger les ingrédients à la cuillère à cocktail, avec des glaçons, et servir « on the rocks » (sur glaçons) dans un verre old fashioned.   
@@ -578,7 +594,9 @@
           <t>Variantes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Godmother, avec de la vodka à la place du scotch whisky
 Godchild : avec de la crème
@@ -614,9 +632,11 @@
           <t>Cinéma</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1972 : The Godfather (Le Parrain) trilogie de films de Francis Ford Coppola, avec Marlon Brando, Al Pacino, et Robert De Niro (source d'inspiration du cocktail)[5].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1972 : The Godfather (Le Parrain) trilogie de films de Francis Ford Coppola, avec Marlon Brando, Al Pacino, et Robert De Niro (source d'inspiration du cocktail).</t>
         </is>
       </c>
     </row>
